--- a/src/test/resources/testData/CreateAccountTest.xlsx
+++ b/src/test/resources/testData/CreateAccountTest.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F1C3F-E572-4985-B622-3B94FBB3B4DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC1" sheetId="1" r:id="rId1"/>
-    <sheet name="TC2" sheetId="2" r:id="rId2"/>
+    <sheet name="TC1" sheetId="5" r:id="rId1"/>
+    <sheet name="TC2" sheetId="4" r:id="rId2"/>
     <sheet name="TC3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -27,34 +28,31 @@
     <t>test</t>
   </si>
   <si>
+    <t>test@gmail.</t>
+  </si>
+  <si>
+    <t>Expected Message</t>
+  </si>
+  <si>
+    <t>Wrong email</t>
+  </si>
+  <si>
+    <t>Your registration completed</t>
+  </si>
+  <si>
     <t>test@</t>
   </si>
   <si>
+    <t>The password and confirmation password do not match.</t>
+  </si>
+  <si>
     <t>test@gmail</t>
-  </si>
-  <si>
-    <t>test@gmail.</t>
-  </si>
-  <si>
-    <t>Invalid email address.</t>
-  </si>
-  <si>
-    <t>Expected Link</t>
-  </si>
-  <si>
-    <t>#account-creation</t>
-  </si>
-  <si>
-    <t>Expected Message</t>
-  </si>
-  <si>
-    <t>Welcome to your account. Here you can manage all of your personal information and orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,11 +97,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -198,6 +197,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,6 +249,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,122 +441,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336D1F25-CDF7-4992-8474-1BFB9F300CEB}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="24.83984375" customWidth="1"/>
+    <col min="2" max="2" width="30.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{EFAB3B78-0FAE-4B17-94FE-9014ED660877}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F6A6C57C-877C-446F-9D2A-0143FEE07C0F}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{73BC2211-FBC7-4D6E-ADB2-5D21A34A0DAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE386ED4-B4A1-46F8-97E1-38126D2E2EA3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="49.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
